--- a/Code/Results/Cases/Case_5_236/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_236/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.623200906877798</v>
+        <v>1.865433692365116</v>
       </c>
       <c r="C2">
-        <v>0.4509523451978055</v>
+        <v>0.1129504528410621</v>
       </c>
       <c r="D2">
-        <v>0.3834837759666669</v>
+        <v>0.2588888633272575</v>
       </c>
       <c r="E2">
-        <v>0.03945863753177226</v>
+        <v>0.05888425167063538</v>
       </c>
       <c r="F2">
-        <v>6.667172538811798</v>
+        <v>4.166620448711939</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1484422319291667</v>
+        <v>0.1950833067680051</v>
       </c>
       <c r="M2">
-        <v>0.4333943384616816</v>
+        <v>0.3646298907252614</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.267500130350129</v>
+        <v>1.801585411290148</v>
       </c>
       <c r="C3">
-        <v>0.3878666988917985</v>
+        <v>0.0977230480798994</v>
       </c>
       <c r="D3">
-        <v>0.3473779293442618</v>
+        <v>0.2485202626132548</v>
       </c>
       <c r="E3">
-        <v>0.03798285487450315</v>
+        <v>0.05833157205361506</v>
       </c>
       <c r="F3">
-        <v>5.911087940818987</v>
+        <v>3.966901955159841</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1343824969785103</v>
+        <v>0.1928430019437073</v>
       </c>
       <c r="M3">
-        <v>0.3777018678811643</v>
+        <v>0.3549506182449633</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.055756333689885</v>
+        <v>1.764192650805796</v>
       </c>
       <c r="C4">
-        <v>0.3500957157011726</v>
+        <v>0.08840518672499798</v>
       </c>
       <c r="D4">
-        <v>0.3257538103521398</v>
+        <v>0.242147989246277</v>
       </c>
       <c r="E4">
-        <v>0.03709610308833033</v>
+        <v>0.05797938699968741</v>
       </c>
       <c r="F4">
-        <v>5.458721391583424</v>
+        <v>3.845285543863554</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1260442848328935</v>
+        <v>0.1915707671165308</v>
       </c>
       <c r="M4">
-        <v>0.3445751234940886</v>
+        <v>0.3493223301951289</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.970924186608158</v>
+        <v>1.749407672288896</v>
       </c>
       <c r="C5">
-        <v>0.3349022153732335</v>
+        <v>0.08461533282630285</v>
       </c>
       <c r="D5">
-        <v>0.3170567020991797</v>
+        <v>0.2395492152180196</v>
       </c>
       <c r="E5">
-        <v>0.03673816282818931</v>
+        <v>0.05783260064830364</v>
       </c>
       <c r="F5">
-        <v>5.276931303223336</v>
+        <v>3.795972201350452</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1227125430534528</v>
+        <v>0.1910782396036126</v>
       </c>
       <c r="M5">
-        <v>0.3313109119044029</v>
+        <v>0.3471075890278783</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.95691981486533</v>
+        <v>1.746979923001163</v>
       </c>
       <c r="C6">
-        <v>0.3323901473296473</v>
+        <v>0.083986446589563</v>
       </c>
       <c r="D6">
-        <v>0.3156188896682011</v>
+        <v>0.2391175531486738</v>
       </c>
       <c r="E6">
-        <v>0.03667889447011774</v>
+        <v>0.05780802833911958</v>
       </c>
       <c r="F6">
-        <v>5.246887608467972</v>
+        <v>3.787798403158746</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.122163089226639</v>
+        <v>0.1909980194219827</v>
       </c>
       <c r="M6">
-        <v>0.3291216945793707</v>
+        <v>0.3467445846585164</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.054606637654103</v>
+        <v>1.763991424786809</v>
       </c>
       <c r="C7">
-        <v>0.3498900614884803</v>
+        <v>0.08835404706127292</v>
       </c>
       <c r="D7">
-        <v>0.3256360804838607</v>
+        <v>0.2421129501593242</v>
       </c>
       <c r="E7">
-        <v>0.03709126373132587</v>
+        <v>0.05797742067276257</v>
       </c>
       <c r="F7">
-        <v>5.456259908431292</v>
+        <v>3.844619500044558</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1259990938285682</v>
+        <v>0.19156401985542</v>
       </c>
       <c r="M7">
-        <v>0.3443953270002496</v>
+        <v>0.349292142664595</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.499033544075985</v>
+        <v>1.843041607641396</v>
       </c>
       <c r="C8">
-        <v>0.4289722453031573</v>
+        <v>0.1076929774053212</v>
       </c>
       <c r="D8">
-        <v>0.370907251071273</v>
+        <v>0.2553146713279233</v>
       </c>
       <c r="E8">
-        <v>0.03894482654993059</v>
+        <v>0.05869632796336399</v>
       </c>
       <c r="F8">
-        <v>6.403734908822003</v>
+        <v>4.097542649461417</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1435282703403544</v>
+        <v>0.1942893658410725</v>
       </c>
       <c r="M8">
-        <v>0.4139483832870141</v>
+        <v>0.3612269279132434</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.434788042608716</v>
+        <v>2.012543560457118</v>
       </c>
       <c r="C9">
-        <v>0.5940039652936377</v>
+        <v>0.1459051811705478</v>
       </c>
       <c r="D9">
-        <v>0.4651544354948669</v>
+        <v>0.281181525930208</v>
       </c>
       <c r="E9">
-        <v>0.04281090762535111</v>
+        <v>0.0600060731653369</v>
       </c>
       <c r="F9">
-        <v>8.378321144443674</v>
+        <v>4.601939369511427</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1806485510310623</v>
+        <v>0.2004570099455378</v>
       </c>
       <c r="M9">
-        <v>0.5605635532159496</v>
+        <v>0.3871463492379164</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.180246385048235</v>
+        <v>2.14609497846368</v>
       </c>
       <c r="C10">
-        <v>0.7251557330387186</v>
+        <v>0.1742087125243756</v>
       </c>
       <c r="D10">
-        <v>0.5396088166208983</v>
+        <v>0.3002092042610514</v>
       </c>
       <c r="E10">
-        <v>0.04592340193634747</v>
+        <v>0.06090993594626504</v>
       </c>
       <c r="F10">
-        <v>9.936775987822756</v>
+        <v>4.978227210593531</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2102612831219801</v>
+        <v>0.2054959191073493</v>
       </c>
       <c r="M10">
-        <v>0.6773785799291403</v>
+        <v>0.4077501761971263</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.537200663589772</v>
+        <v>2.208852338371457</v>
       </c>
       <c r="C11">
-        <v>0.788055435704166</v>
+        <v>0.1871463113645859</v>
       </c>
       <c r="D11">
-        <v>0.5751304227057688</v>
+        <v>0.3088784807000877</v>
       </c>
       <c r="E11">
-        <v>0.0474364121123747</v>
+        <v>0.06130900693438357</v>
       </c>
       <c r="F11">
-        <v>10.67927788089656</v>
+        <v>5.15077811869844</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2244241883575882</v>
+        <v>0.2078997798860911</v>
       </c>
       <c r="M11">
-        <v>0.7332921825145107</v>
+        <v>0.4174686230511355</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.675479130093379</v>
+        <v>2.232908395317736</v>
       </c>
       <c r="C12">
-        <v>0.8124535835999609</v>
+        <v>0.1920553194998718</v>
       </c>
       <c r="D12">
-        <v>0.5888725932928196</v>
+        <v>0.3121638770571735</v>
       </c>
       <c r="E12">
-        <v>0.04802739155759239</v>
+        <v>0.06145843032003051</v>
       </c>
       <c r="F12">
-        <v>10.96631216844611</v>
+        <v>5.216326338398346</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2299055491730684</v>
+        <v>0.2088262092430284</v>
       </c>
       <c r="M12">
-        <v>0.7549464218475066</v>
+        <v>0.4211989285676196</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.645550365567999</v>
+        <v>2.227714492553332</v>
       </c>
       <c r="C13">
-        <v>0.8071711647153279</v>
+        <v>0.1909976258157826</v>
       </c>
       <c r="D13">
-        <v>0.5858990696131627</v>
+        <v>0.3114561862072662</v>
       </c>
       <c r="E13">
-        <v>0.04789923652193551</v>
+        <v>0.06142632405104331</v>
       </c>
       <c r="F13">
-        <v>10.90421459493052</v>
+        <v>5.202200006244084</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2287194483804029</v>
+        <v>0.2086259668894002</v>
       </c>
       <c r="M13">
-        <v>0.7502599190563259</v>
+        <v>0.4203933034372511</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.548511140911671</v>
+        <v>2.210825590846923</v>
       </c>
       <c r="C14">
-        <v>0.7900503363609346</v>
+        <v>0.187549976504215</v>
       </c>
       <c r="D14">
-        <v>0.5762548260176459</v>
+        <v>0.3091487181374646</v>
       </c>
       <c r="E14">
-        <v>0.04748464424855303</v>
+        <v>0.06132133382548788</v>
       </c>
       <c r="F14">
-        <v>10.70276813951534</v>
+        <v>5.156166610150819</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2248726551437272</v>
+        <v>0.2079756738222329</v>
       </c>
       <c r="M14">
-        <v>0.7350635219964943</v>
+        <v>0.4177745100974448</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.489494450541258</v>
+        <v>2.200518665624259</v>
       </c>
       <c r="C15">
-        <v>0.7796425733404249</v>
+        <v>0.1854394970397379</v>
       </c>
       <c r="D15">
-        <v>0.5703870944827827</v>
+        <v>0.3077356743565076</v>
       </c>
       <c r="E15">
-        <v>0.04723317981043529</v>
+        <v>0.06125680470785833</v>
       </c>
       <c r="F15">
-        <v>10.58017446474599</v>
+        <v>5.127997048010911</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2225323875928211</v>
+        <v>0.2075794549929668</v>
       </c>
       <c r="M15">
-        <v>0.72582063913989</v>
+        <v>0.4161769664950867</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.157321558791296</v>
+        <v>2.14203422139343</v>
       </c>
       <c r="C16">
-        <v>0.7211194478932725</v>
+        <v>0.1733645359396121</v>
       </c>
       <c r="D16">
-        <v>0.5373249702703617</v>
+        <v>0.2996429683624626</v>
       </c>
       <c r="E16">
-        <v>0.04582680506487602</v>
+        <v>0.06088361596336034</v>
       </c>
       <c r="F16">
-        <v>9.889011386924039</v>
+        <v>4.966979060952013</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2093511464566689</v>
+        <v>0.2053410748586231</v>
       </c>
       <c r="M16">
-        <v>0.6737869735799862</v>
+        <v>0.4071220452936259</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.958467542192864</v>
+        <v>2.106671333836118</v>
       </c>
       <c r="C17">
-        <v>0.6861206365139481</v>
+        <v>0.1659734837244002</v>
       </c>
       <c r="D17">
-        <v>0.5175004159943057</v>
+        <v>0.2946822278969989</v>
       </c>
       <c r="E17">
-        <v>0.04499153750757889</v>
+        <v>0.06065160854612772</v>
       </c>
       <c r="F17">
-        <v>9.474279201031919</v>
+        <v>4.868558525207504</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2014543458145681</v>
+        <v>0.2039965541798523</v>
       </c>
       <c r="M17">
-        <v>0.6426300755350951</v>
+        <v>0.4016559817493359</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.845733350198543</v>
+        <v>2.086519990484135</v>
       </c>
       <c r="C18">
-        <v>0.6662870119755837</v>
+        <v>0.161728145016923</v>
       </c>
       <c r="D18">
-        <v>0.5062496202736497</v>
+        <v>0.2918301752711159</v>
       </c>
       <c r="E18">
-        <v>0.04451996520421453</v>
+        <v>0.06051702237566947</v>
       </c>
       <c r="F18">
-        <v>9.238821833345355</v>
+        <v>4.812078568048264</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1969761437681825</v>
+        <v>0.203233723771973</v>
       </c>
       <c r="M18">
-        <v>0.6249648018469571</v>
+        <v>0.3985445551131619</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.807830550159053</v>
+        <v>2.079729368793608</v>
       </c>
       <c r="C19">
-        <v>0.6596195593037351</v>
+        <v>0.1602917157978254</v>
       </c>
       <c r="D19">
-        <v>0.5024648941775354</v>
+        <v>0.2908647133627511</v>
       </c>
       <c r="E19">
-        <v>0.04436170939270312</v>
+        <v>0.06047125640477669</v>
       </c>
       <c r="F19">
-        <v>9.159601393883946</v>
+        <v>4.792977293862236</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1954703494295984</v>
+        <v>0.2029772437074939</v>
       </c>
       <c r="M19">
-        <v>0.6190252485470324</v>
+        <v>0.3974966498716412</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.979462421700759</v>
+        <v>2.11041624776766</v>
       </c>
       <c r="C20">
-        <v>0.6898148550583869</v>
+        <v>0.1667596673647154</v>
       </c>
       <c r="D20">
-        <v>0.5195947121550262</v>
+        <v>0.2952101752153737</v>
       </c>
       <c r="E20">
-        <v>0.0450795104310413</v>
+        <v>0.06067642397075135</v>
       </c>
       <c r="F20">
-        <v>9.518101887682036</v>
+        <v>4.879022149741331</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2022882432290203</v>
+        <v>0.2041385931356956</v>
       </c>
       <c r="M20">
-        <v>0.6459198079069139</v>
+        <v>0.4022344859311247</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.576924710939068</v>
+        <v>2.215778342925432</v>
       </c>
       <c r="C21">
-        <v>0.7950623873593372</v>
+        <v>0.1885623610651521</v>
       </c>
       <c r="D21">
-        <v>0.5790792014902308</v>
+        <v>0.3098264040602601</v>
       </c>
       <c r="E21">
-        <v>0.04760589349445299</v>
+        <v>0.06135221767937948</v>
       </c>
       <c r="F21">
-        <v>10.76176937336578</v>
+        <v>5.169682044903141</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2259991777955577</v>
+        <v>0.2081662419351318</v>
       </c>
       <c r="M21">
-        <v>0.7395132833292379</v>
+        <v>0.4185423488439923</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.985850446240477</v>
+        <v>2.286337404458834</v>
       </c>
       <c r="C22">
-        <v>0.8672964142743353</v>
+        <v>0.2028693429196267</v>
       </c>
       <c r="D22">
-        <v>0.6196842729939362</v>
+        <v>0.3193939772040153</v>
       </c>
       <c r="E22">
-        <v>0.04936477122778138</v>
+        <v>0.06178402237172986</v>
       </c>
       <c r="F22">
-        <v>11.60940320743202</v>
+        <v>5.360855604433425</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2421958705439096</v>
+        <v>0.2108926587162756</v>
       </c>
       <c r="M22">
-        <v>0.8035362175418754</v>
+        <v>0.4294929498645885</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.765701917202932</v>
+        <v>2.248522241251578</v>
       </c>
       <c r="C23">
-        <v>0.8283839774319972</v>
+        <v>0.1952278662002698</v>
       </c>
       <c r="D23">
-        <v>0.5978339132927601</v>
+        <v>0.3142860121293438</v>
       </c>
       <c r="E23">
-        <v>0.04841456458277804</v>
+        <v>0.06155444810972432</v>
       </c>
       <c r="F23">
-        <v>11.15341913791582</v>
+        <v>5.258708865385358</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2334801766413506</v>
+        <v>0.2094288778196756</v>
       </c>
       <c r="M23">
-        <v>0.76907321335338</v>
+        <v>0.4236214996045149</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.969965724802307</v>
+        <v>2.108722614076385</v>
       </c>
       <c r="C24">
-        <v>0.6881438111278726</v>
+        <v>0.1664042217356325</v>
       </c>
       <c r="D24">
-        <v>0.5186474281104267</v>
+        <v>0.2949714904537188</v>
       </c>
       <c r="E24">
-        <v>0.04503971127342687</v>
+        <v>0.06066520866456271</v>
       </c>
       <c r="F24">
-        <v>9.498280452035715</v>
+        <v>4.874291223958579</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2019110471596264</v>
+        <v>0.2040743457080367</v>
       </c>
       <c r="M24">
-        <v>0.6444317557793795</v>
+        <v>0.4019728473969124</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.173006480149866</v>
+        <v>1.965118975825703</v>
       </c>
       <c r="C25">
-        <v>0.5479364778054219</v>
+        <v>0.1355314440097288</v>
       </c>
       <c r="D25">
-        <v>0.43889635526034</v>
+        <v>0.27418242419607</v>
       </c>
       <c r="E25">
-        <v>0.04172820583228853</v>
+        <v>0.05966219706069231</v>
       </c>
       <c r="F25">
-        <v>7.828220969566729</v>
+        <v>4.464526573961734</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1702498609429171</v>
+        <v>0.1986997894115561</v>
       </c>
       <c r="M25">
-        <v>0.5195375884758491</v>
+        <v>0.3798623891581911</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_236/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_236/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.865433692365116</v>
+        <v>2.623200906877628</v>
       </c>
       <c r="C2">
-        <v>0.1129504528410621</v>
+        <v>0.4509523451982602</v>
       </c>
       <c r="D2">
-        <v>0.2588888633272575</v>
+        <v>0.3834837759667096</v>
       </c>
       <c r="E2">
-        <v>0.05888425167063538</v>
+        <v>0.03945863753172207</v>
       </c>
       <c r="F2">
-        <v>4.166620448711939</v>
+        <v>6.667172538811798</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1950833067680051</v>
+        <v>0.1484422319291738</v>
       </c>
       <c r="M2">
-        <v>0.3646298907252614</v>
+        <v>0.4333943384616674</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.801585411290148</v>
+        <v>2.267500130349902</v>
       </c>
       <c r="C3">
-        <v>0.0977230480798994</v>
+        <v>0.3878666988921964</v>
       </c>
       <c r="D3">
-        <v>0.2485202626132548</v>
+        <v>0.3473779293442334</v>
       </c>
       <c r="E3">
-        <v>0.05833157205361506</v>
+        <v>0.03798285487448139</v>
       </c>
       <c r="F3">
-        <v>3.966901955159841</v>
+        <v>5.911087940818959</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1928430019437073</v>
+        <v>0.1343824969786382</v>
       </c>
       <c r="M3">
-        <v>0.3549506182449633</v>
+        <v>0.3777018678811785</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.764192650805796</v>
+        <v>2.055756333689715</v>
       </c>
       <c r="C4">
-        <v>0.08840518672499798</v>
+        <v>0.3500957157009452</v>
       </c>
       <c r="D4">
-        <v>0.242147989246277</v>
+        <v>0.3257538103519551</v>
       </c>
       <c r="E4">
-        <v>0.05797938699968741</v>
+        <v>0.03709610308835298</v>
       </c>
       <c r="F4">
-        <v>3.845285543863554</v>
+        <v>5.458721391583396</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1915707671165308</v>
+        <v>0.1260442848328367</v>
       </c>
       <c r="M4">
-        <v>0.3493223301951289</v>
+        <v>0.344575123494046</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.749407672288896</v>
+        <v>1.970924186607817</v>
       </c>
       <c r="C5">
-        <v>0.08461533282630285</v>
+        <v>0.3349022153732335</v>
       </c>
       <c r="D5">
-        <v>0.2395492152180196</v>
+        <v>0.3170567020989239</v>
       </c>
       <c r="E5">
-        <v>0.05783260064830364</v>
+        <v>0.0367381628281862</v>
       </c>
       <c r="F5">
-        <v>3.795972201350452</v>
+        <v>5.276931303223364</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1910782396036126</v>
+        <v>0.1227125430534954</v>
       </c>
       <c r="M5">
-        <v>0.3471075890278783</v>
+        <v>0.3313109119043887</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.746979923001163</v>
+        <v>1.956919814865387</v>
       </c>
       <c r="C6">
-        <v>0.083986446589563</v>
+        <v>0.3323901473292494</v>
       </c>
       <c r="D6">
-        <v>0.2391175531486738</v>
+        <v>0.3156188896685137</v>
       </c>
       <c r="E6">
-        <v>0.05780802833911958</v>
+        <v>0.03667889447015726</v>
       </c>
       <c r="F6">
-        <v>3.787798403158746</v>
+        <v>5.246887608468029</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1909980194219827</v>
+        <v>0.1221630892266248</v>
       </c>
       <c r="M6">
-        <v>0.3467445846585164</v>
+        <v>0.3291216945793494</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.763991424786809</v>
+        <v>2.054606637653762</v>
       </c>
       <c r="C7">
-        <v>0.08835404706127292</v>
+        <v>0.3498900614879119</v>
       </c>
       <c r="D7">
-        <v>0.2421129501593242</v>
+        <v>0.3256360804835055</v>
       </c>
       <c r="E7">
-        <v>0.05797742067276257</v>
+        <v>0.03709126373131388</v>
       </c>
       <c r="F7">
-        <v>3.844619500044558</v>
+        <v>5.456259908431207</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.19156401985542</v>
+        <v>0.1259990938284048</v>
       </c>
       <c r="M7">
-        <v>0.349292142664595</v>
+        <v>0.3443953270002496</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.843041607641396</v>
+        <v>2.499033544075871</v>
       </c>
       <c r="C8">
-        <v>0.1076929774053212</v>
+        <v>0.4289722453029299</v>
       </c>
       <c r="D8">
-        <v>0.2553146713279233</v>
+        <v>0.3709072510709603</v>
       </c>
       <c r="E8">
-        <v>0.05869632796336399</v>
+        <v>0.03894482654988107</v>
       </c>
       <c r="F8">
-        <v>4.097542649461417</v>
+        <v>6.403734908822145</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1942893658410725</v>
+        <v>0.1435282703404255</v>
       </c>
       <c r="M8">
-        <v>0.3612269279132434</v>
+        <v>0.4139483832869786</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.012543560457118</v>
+        <v>3.434788042608432</v>
       </c>
       <c r="C9">
-        <v>0.1459051811705478</v>
+        <v>0.5940039652926714</v>
       </c>
       <c r="D9">
-        <v>0.281181525930208</v>
+        <v>0.4651544354947816</v>
       </c>
       <c r="E9">
-        <v>0.0600060731653369</v>
+        <v>0.04281090762536355</v>
       </c>
       <c r="F9">
-        <v>4.601939369511427</v>
+        <v>8.378321144443788</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2004570099455378</v>
+        <v>0.1806485510311475</v>
       </c>
       <c r="M9">
-        <v>0.3871463492379164</v>
+        <v>0.560563553215971</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.14609497846368</v>
+        <v>4.180246385048235</v>
       </c>
       <c r="C10">
-        <v>0.1742087125243756</v>
+        <v>0.7251557330382639</v>
       </c>
       <c r="D10">
-        <v>0.3002092042610514</v>
+        <v>0.5396088166206994</v>
       </c>
       <c r="E10">
-        <v>0.06090993594626504</v>
+        <v>0.04592340193636524</v>
       </c>
       <c r="F10">
-        <v>4.978227210593531</v>
+        <v>9.936775987822699</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2054959191073493</v>
+        <v>0.2102612831216391</v>
       </c>
       <c r="M10">
-        <v>0.4077501761971263</v>
+        <v>0.6773785799291474</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.208852338371457</v>
+        <v>4.537200663589772</v>
       </c>
       <c r="C11">
-        <v>0.1871463113645859</v>
+        <v>0.7880554357037113</v>
       </c>
       <c r="D11">
-        <v>0.3088784807000877</v>
+        <v>0.5751304227050298</v>
       </c>
       <c r="E11">
-        <v>0.06130900693438357</v>
+        <v>0.04743641211243466</v>
       </c>
       <c r="F11">
-        <v>5.15077811869844</v>
+        <v>10.67927788089662</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2078997798860911</v>
+        <v>0.2244241883575597</v>
       </c>
       <c r="M11">
-        <v>0.4174686230511355</v>
+        <v>0.7332921825145462</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.232908395317736</v>
+        <v>4.675479130093663</v>
       </c>
       <c r="C12">
-        <v>0.1920553194998718</v>
+        <v>0.8124535836004441</v>
       </c>
       <c r="D12">
-        <v>0.3121638770571735</v>
+        <v>0.5888725932930754</v>
       </c>
       <c r="E12">
-        <v>0.06145843032003051</v>
+        <v>0.04802739155754265</v>
       </c>
       <c r="F12">
-        <v>5.216326338398346</v>
+        <v>10.96631216844605</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2088262092430284</v>
+        <v>0.2299055491730826</v>
       </c>
       <c r="M12">
-        <v>0.4211989285676196</v>
+        <v>0.7549464218475137</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.227714492553332</v>
+        <v>4.645550365568056</v>
       </c>
       <c r="C13">
-        <v>0.1909976258157826</v>
+        <v>0.8071711647157542</v>
       </c>
       <c r="D13">
-        <v>0.3114561862072662</v>
+        <v>0.5858990696134185</v>
       </c>
       <c r="E13">
-        <v>0.06142632405104331</v>
+        <v>0.04789923652183736</v>
       </c>
       <c r="F13">
-        <v>5.202200006244084</v>
+        <v>10.90421459493041</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2086259668894002</v>
+        <v>0.2287194483802892</v>
       </c>
       <c r="M13">
-        <v>0.4203933034372511</v>
+        <v>0.7502599190562833</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.210825590846923</v>
+        <v>4.548511140911387</v>
       </c>
       <c r="C14">
-        <v>0.187549976504215</v>
+        <v>0.790050336360963</v>
       </c>
       <c r="D14">
-        <v>0.3091487181374646</v>
+        <v>0.5762548260179017</v>
       </c>
       <c r="E14">
-        <v>0.06132133382548788</v>
+        <v>0.04748464424858323</v>
       </c>
       <c r="F14">
-        <v>5.156166610150819</v>
+        <v>10.7027681395154</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2079756738222329</v>
+        <v>0.2248726551435993</v>
       </c>
       <c r="M14">
-        <v>0.4177745100974448</v>
+        <v>0.7350635219965511</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.200518665624259</v>
+        <v>4.489494450541713</v>
       </c>
       <c r="C15">
-        <v>0.1854394970397379</v>
+        <v>0.7796425733407943</v>
       </c>
       <c r="D15">
-        <v>0.3077356743565076</v>
+        <v>0.5703870944829816</v>
       </c>
       <c r="E15">
-        <v>0.06125680470785833</v>
+        <v>0.04723317981057873</v>
       </c>
       <c r="F15">
-        <v>5.127997048010911</v>
+        <v>10.58017446474611</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2075794549929668</v>
+        <v>0.2225323875927927</v>
       </c>
       <c r="M15">
-        <v>0.4161769664950867</v>
+        <v>0.7258206391398971</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.14203422139343</v>
+        <v>4.157321558791296</v>
       </c>
       <c r="C16">
-        <v>0.1733645359396121</v>
+        <v>0.7211194478928462</v>
       </c>
       <c r="D16">
-        <v>0.2996429683624626</v>
+        <v>0.5373249702706744</v>
       </c>
       <c r="E16">
-        <v>0.06088361596336034</v>
+        <v>0.04582680506485071</v>
       </c>
       <c r="F16">
-        <v>4.966979060952013</v>
+        <v>9.889011386923841</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2053410748586231</v>
+        <v>0.2093511464565978</v>
       </c>
       <c r="M16">
-        <v>0.4071220452936259</v>
+        <v>0.673786973579972</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.106671333836118</v>
+        <v>3.958467542192693</v>
       </c>
       <c r="C17">
-        <v>0.1659734837244002</v>
+        <v>0.6861206365135217</v>
       </c>
       <c r="D17">
-        <v>0.2946822278969989</v>
+        <v>0.5175004159943057</v>
       </c>
       <c r="E17">
-        <v>0.06065160854612772</v>
+        <v>0.04499153750759</v>
       </c>
       <c r="F17">
-        <v>4.868558525207504</v>
+        <v>9.474279201031862</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2039965541798523</v>
+        <v>0.2014543458145113</v>
       </c>
       <c r="M17">
-        <v>0.4016559817493359</v>
+        <v>0.6426300755350738</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.086519990484135</v>
+        <v>3.8457333501986</v>
       </c>
       <c r="C18">
-        <v>0.161728145016923</v>
+        <v>0.6662870119751005</v>
       </c>
       <c r="D18">
-        <v>0.2918301752711159</v>
+        <v>0.5062496202736213</v>
       </c>
       <c r="E18">
-        <v>0.06051702237566947</v>
+        <v>0.04451996520420254</v>
       </c>
       <c r="F18">
-        <v>4.812078568048264</v>
+        <v>9.238821833345412</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.203233723771973</v>
+        <v>0.196976143768083</v>
       </c>
       <c r="M18">
-        <v>0.3985445551131619</v>
+        <v>0.6249648018469927</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.079729368793608</v>
+        <v>3.80783055015894</v>
       </c>
       <c r="C19">
-        <v>0.1602917157978254</v>
+        <v>0.6596195593037919</v>
       </c>
       <c r="D19">
-        <v>0.2908647133627511</v>
+        <v>0.502464894177308</v>
       </c>
       <c r="E19">
-        <v>0.06047125640477669</v>
+        <v>0.04436170939264672</v>
       </c>
       <c r="F19">
-        <v>4.792977293862236</v>
+        <v>9.159601393883918</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2029772437074939</v>
+        <v>0.1954703494294989</v>
       </c>
       <c r="M19">
-        <v>0.3974966498716412</v>
+        <v>0.6190252485470253</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.11041624776766</v>
+        <v>3.979462421700816</v>
       </c>
       <c r="C20">
-        <v>0.1667596673647154</v>
+        <v>0.6898148550588132</v>
       </c>
       <c r="D20">
-        <v>0.2952101752153737</v>
+        <v>0.5195947121548272</v>
       </c>
       <c r="E20">
-        <v>0.06067642397075135</v>
+        <v>0.04507951043098934</v>
       </c>
       <c r="F20">
-        <v>4.879022149741331</v>
+        <v>9.518101887681979</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2041385931356956</v>
+        <v>0.2022882432289634</v>
       </c>
       <c r="M20">
-        <v>0.4022344859311247</v>
+        <v>0.6459198079069495</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.215778342925432</v>
+        <v>4.576924710939238</v>
       </c>
       <c r="C21">
-        <v>0.1885623610651521</v>
+        <v>0.7950623873592235</v>
       </c>
       <c r="D21">
-        <v>0.3098264040602601</v>
+        <v>0.5790792014904014</v>
       </c>
       <c r="E21">
-        <v>0.06135221767937948</v>
+        <v>0.04760589349444988</v>
       </c>
       <c r="F21">
-        <v>5.169682044903141</v>
+        <v>10.76176937336601</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2081662419351318</v>
+        <v>0.2259991777956145</v>
       </c>
       <c r="M21">
-        <v>0.4185423488439923</v>
+        <v>0.7395132833292379</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.286337404458834</v>
+        <v>4.985850446240534</v>
       </c>
       <c r="C22">
-        <v>0.2028693429196267</v>
+        <v>0.8672964142741932</v>
       </c>
       <c r="D22">
-        <v>0.3193939772040153</v>
+        <v>0.6196842729940499</v>
       </c>
       <c r="E22">
-        <v>0.06178402237172986</v>
+        <v>0.04936477122772454</v>
       </c>
       <c r="F22">
-        <v>5.360855604433425</v>
+        <v>11.60940320743219</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2108926587162756</v>
+        <v>0.2421958705440943</v>
       </c>
       <c r="M22">
-        <v>0.4294929498645885</v>
+        <v>0.8035362175418825</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.248522241251578</v>
+        <v>4.76570191720316</v>
       </c>
       <c r="C23">
-        <v>0.1952278662002698</v>
+        <v>0.8283839774308888</v>
       </c>
       <c r="D23">
-        <v>0.3142860121293438</v>
+        <v>0.5978339132930728</v>
       </c>
       <c r="E23">
-        <v>0.06155444810972432</v>
+        <v>0.04841456458277316</v>
       </c>
       <c r="F23">
-        <v>5.258708865385358</v>
+        <v>11.15341913791605</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2094288778196756</v>
+        <v>0.23348017664145</v>
       </c>
       <c r="M23">
-        <v>0.4236214996045149</v>
+        <v>0.7690732133533587</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.108722614076385</v>
+        <v>3.969965724802137</v>
       </c>
       <c r="C24">
-        <v>0.1664042217356325</v>
+        <v>0.6881438111288105</v>
       </c>
       <c r="D24">
-        <v>0.2949714904537188</v>
+        <v>0.5186474281101709</v>
       </c>
       <c r="E24">
-        <v>0.06066520866456271</v>
+        <v>0.04503971127342243</v>
       </c>
       <c r="F24">
-        <v>4.874291223958579</v>
+        <v>9.498280452035686</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2040743457080367</v>
+        <v>0.2019110471596122</v>
       </c>
       <c r="M24">
-        <v>0.4019728473969124</v>
+        <v>0.64443175577928</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.965118975825703</v>
+        <v>3.173006480149695</v>
       </c>
       <c r="C25">
-        <v>0.1355314440097288</v>
+        <v>0.5479364778053082</v>
       </c>
       <c r="D25">
-        <v>0.27418242419607</v>
+        <v>0.4388963552604253</v>
       </c>
       <c r="E25">
-        <v>0.05966219706069231</v>
+        <v>0.04172820583211223</v>
       </c>
       <c r="F25">
-        <v>4.464526573961734</v>
+        <v>7.828220969566956</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1986997894115561</v>
+        <v>0.1702498609430165</v>
       </c>
       <c r="M25">
-        <v>0.3798623891581911</v>
+        <v>0.519537588475842</v>
       </c>
       <c r="N25">
         <v>0</v>
